--- a/Excel/076_DashBoard+1.xlsx
+++ b/Excel/076_DashBoard+1.xlsx
@@ -8,20 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D6010-1895-444E-9178-A3838A792E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC0C89-B4BF-4088-B51A-6B50C21D8F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{0F881DE4-0263-4936-8263-7C6D728F4D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
-    <sheet name="Vendas" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabela de Preços" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId2"/>
+    <sheet name="Vendas" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabela de Preços" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Funcionário">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="40">
   <si>
     <t>Produto</t>
   </si>
@@ -129,6 +141,27 @@
   </si>
   <si>
     <t>Paloma Silva</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Total Vendas</t>
+  </si>
+  <si>
+    <t>Soma de Quantidade</t>
+  </si>
+  <si>
+    <t>Vendas Cliente</t>
+  </si>
+  <si>
+    <t>Qtd Vendas Cliente</t>
+  </si>
+  <si>
+    <t>Vendas Funcionário</t>
   </si>
 </sst>
 </file>
@@ -174,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -262,123 +295,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,28 +321,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -466,6 +377,89 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72111</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Funcionário">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D188384-750B-4DF1-936E-1CA57A1A2AC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Funcionário"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="217714" y="283028"/>
+              <a:ext cx="1828800" cy="2564940"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rodrigo Costa" refreshedDate="45467.781691087963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{F0D5D6E5-7129-4486-9809-9F540084F507}">
   <cacheSource type="worksheet">
@@ -473,13 +467,41 @@
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Funcionário" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="9">
+        <s v="João Campos"/>
+        <s v="José Oliveira"/>
+        <s v="Maria Helena"/>
+        <s v="Carla França"/>
+        <s v="Moisés Ferreira"/>
+        <s v="Aline Pereira"/>
+        <s v="Tabata Moreira"/>
+        <s v="Miguel Araujo"/>
+        <s v="Paloma Silva"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Cliente" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="11">
+        <s v="Elaine"/>
+        <s v="José"/>
+        <s v="Alvaro"/>
+        <s v="Roberta"/>
+        <s v="Alice"/>
+        <s v="Carla"/>
+        <s v="Monica"/>
+        <s v="Thuany"/>
+        <s v="Solange"/>
+        <s v="Mia"/>
+        <s v="Rose"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Produto vendido" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="5">
+        <s v="Calça"/>
+        <s v="Camisa"/>
+        <s v="Relógio"/>
+        <s v="Sapato"/>
+        <s v="Tênis"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-09-12T00:00:00" maxDate="2020-10-21T00:00:00"/>
@@ -493,7 +515,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1598470065"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -502,441 +524,441 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
   <r>
-    <s v="João Campos"/>
-    <s v="Elaine"/>
-    <s v="Calça"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <d v="2019-09-12T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="José"/>
-    <s v="Calça"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
     <d v="2019-09-19T00:00:00"/>
     <n v="3"/>
     <n v="269.70000000000005"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Alvaro"/>
-    <s v="Camisa"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
     <d v="2019-09-26T00:00:00"/>
     <n v="5"/>
     <n v="399.5"/>
   </r>
   <r>
-    <s v="Carla França"/>
-    <s v="Roberta"/>
-    <s v="Relógio"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
     <d v="2019-10-03T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <s v="Moisés Ferreira"/>
-    <s v="Alice"/>
-    <s v="Sapato"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
     <d v="2019-10-10T00:00:00"/>
     <n v="4"/>
     <n v="480"/>
   </r>
   <r>
-    <s v="Aline Pereira"/>
-    <s v="Carla"/>
-    <s v="Tênis"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="4"/>
     <d v="2019-10-17T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
   </r>
   <r>
-    <s v="Tabata Moreira"/>
-    <s v="Monica"/>
-    <s v="Relógio"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="2"/>
     <d v="2019-10-24T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <s v="Miguel Araujo"/>
-    <s v="Elaine"/>
-    <s v="Sapato"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="3"/>
     <d v="2019-10-31T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="José"/>
-    <s v="Tênis"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
     <d v="2019-11-07T00:00:00"/>
     <n v="5"/>
     <n v="714.95"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Alvaro"/>
-    <s v="Calça"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
     <d v="2019-11-14T00:00:00"/>
     <n v="9"/>
     <n v="809.1"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Roberta"/>
-    <s v="Calça"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
     <d v="2019-11-21T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Alice"/>
-    <s v="Camisa"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
     <d v="2019-11-28T00:00:00"/>
     <n v="1"/>
     <n v="79.900000000000006"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Carla"/>
-    <s v="Relógio"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
     <d v="2019-12-05T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Monica"/>
-    <s v="Sapato"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
     <d v="2019-12-12T00:00:00"/>
     <n v="3"/>
     <n v="360"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Thuany"/>
-    <s v="Tênis"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="4"/>
     <d v="2019-12-19T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
   </r>
   <r>
-    <s v="Carla França"/>
-    <s v="Solange"/>
-    <s v="Relógio"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
     <d v="2019-12-26T00:00:00"/>
     <n v="12"/>
     <n v="3000"/>
   </r>
   <r>
-    <s v="Moisés Ferreira"/>
-    <s v="Mia"/>
-    <s v="Sapato"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="3"/>
     <d v="2020-01-02T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="Aline Pereira"/>
-    <s v="Rose"/>
-    <s v="Tênis"/>
+    <x v="5"/>
+    <x v="10"/>
+    <x v="4"/>
     <d v="2020-01-09T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
   </r>
   <r>
-    <s v="Tabata Moreira"/>
-    <s v="Roberta"/>
-    <s v="Calça"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
     <d v="2020-01-16T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="Miguel Araujo"/>
-    <s v="Elaine"/>
-    <s v="Calça"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
     <d v="2020-01-23T00:00:00"/>
     <n v="2"/>
     <n v="179.8"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="José"/>
-    <s v="Camisa"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <d v="2020-01-30T00:00:00"/>
     <n v="1"/>
     <n v="79.900000000000006"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Alvaro"/>
-    <s v="Relógio"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
     <d v="2020-02-06T00:00:00"/>
     <n v="3"/>
     <n v="750"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Roberta"/>
-    <s v="Sapato"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
     <d v="2020-02-13T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Alice"/>
-    <s v="Tênis"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
     <d v="2020-02-20T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Carla"/>
-    <s v="Relógio"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
     <d v="2020-02-27T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <s v="Carla França"/>
-    <s v="Monica"/>
-    <s v="Sapato"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="3"/>
     <d v="2020-03-05T00:00:00"/>
     <n v="4"/>
     <n v="480"/>
   </r>
   <r>
-    <s v="Moisés Ferreira"/>
-    <s v="Thuany"/>
-    <s v="Tênis"/>
+    <x v="4"/>
+    <x v="7"/>
+    <x v="4"/>
     <d v="2020-03-12T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Solange"/>
-    <s v="Calça"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
     <d v="2020-03-19T00:00:00"/>
     <n v="2"/>
     <n v="179.8"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Mia"/>
-    <s v="Calça"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
     <d v="2020-03-26T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Rose"/>
-    <s v="Camisa"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
     <d v="2020-04-02T00:00:00"/>
     <n v="9"/>
     <n v="719.1"/>
   </r>
   <r>
-    <s v="Carla França"/>
-    <s v="Elaine"/>
-    <s v="Relógio"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
     <d v="2020-04-09T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <s v="Moisés Ferreira"/>
-    <s v="José"/>
-    <s v="Sapato"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
     <d v="2020-04-16T00:00:00"/>
     <n v="2"/>
     <n v="240"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Alvaro"/>
-    <s v="Tênis"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
     <d v="2020-04-23T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Roberta"/>
-    <s v="Relógio"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
     <d v="2020-04-30T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Alice"/>
-    <s v="Sapato"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
     <d v="2020-05-07T00:00:00"/>
     <n v="2"/>
     <n v="240"/>
   </r>
   <r>
-    <s v="Carla França"/>
-    <s v="Carla"/>
-    <s v="Tênis"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="4"/>
     <d v="2020-05-14T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Monica"/>
-    <s v="Calça"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
     <d v="2020-05-21T00:00:00"/>
     <n v="4"/>
     <n v="359.6"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Thuany"/>
-    <s v="Calça"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
     <d v="2020-05-28T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Solange"/>
-    <s v="Camisa"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
     <d v="2020-06-04T00:00:00"/>
     <n v="1"/>
     <n v="79.900000000000006"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Mia"/>
-    <s v="Relógio"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
     <d v="2020-06-11T00:00:00"/>
     <n v="3"/>
     <n v="750"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Elaine"/>
-    <s v="Sapato"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
     <d v="2020-06-18T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="José"/>
-    <s v="Tênis"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
     <d v="2020-06-25T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Alvaro"/>
-    <s v="Relógio"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
     <d v="2020-07-02T00:00:00"/>
     <n v="2"/>
     <n v="500"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Elaine"/>
-    <s v="Sapato"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
     <d v="2020-07-09T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="Carla França"/>
-    <s v="José"/>
-    <s v="Tênis"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
     <d v="2020-07-16T00:00:00"/>
     <n v="4"/>
     <n v="571.96"/>
   </r>
   <r>
-    <s v="Moisés Ferreira"/>
-    <s v="Alvaro"/>
-    <s v="Calça"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
     <d v="2020-07-23T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="Aline Pereira"/>
-    <s v="Roberta"/>
-    <s v="Calça"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
     <d v="2020-07-30T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
   </r>
   <r>
-    <s v="Tabata Moreira"/>
-    <s v="Alice"/>
-    <s v="Camisa"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="1"/>
     <d v="2020-08-06T00:00:00"/>
     <n v="6"/>
     <n v="479.40000000000003"/>
   </r>
   <r>
-    <s v="Miguel Araujo"/>
-    <s v="Carla"/>
-    <s v="Relógio"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="2"/>
     <d v="2020-08-13T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
   </r>
   <r>
-    <s v="João Campos"/>
-    <s v="Monica"/>
-    <s v="Sapato"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
     <d v="2020-08-20T00:00:00"/>
     <n v="3"/>
     <n v="360"/>
   </r>
   <r>
-    <s v="José Oliveira"/>
-    <s v="Thuany"/>
-    <s v="Tênis"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="4"/>
     <d v="2020-08-27T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
   </r>
   <r>
-    <s v="Maria Helena"/>
-    <s v="Solange"/>
-    <s v="Relógio"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
     <d v="2020-09-03T00:00:00"/>
     <n v="2"/>
     <n v="500"/>
   </r>
   <r>
-    <s v="Carla França"/>
-    <s v="Mia"/>
-    <s v="Sapato"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="3"/>
     <d v="2020-09-10T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
   </r>
   <r>
-    <s v="Moisés Ferreira"/>
-    <s v="Rose"/>
-    <s v="Tênis"/>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="4"/>
     <d v="2020-09-17T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
   </r>
   <r>
-    <s v="Paloma Silva"/>
-    <s v="Roberta"/>
-    <s v="Camisa"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="1"/>
     <d v="2020-10-20T00:00:00"/>
     <n v="5"/>
     <n v="399.5"/>
@@ -945,16 +967,100 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3942E28C-BC4B-4EE7-93E2-5B37962817BF}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="44" showAll="0"/>
   </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Quantidade" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -965,6 +1071,219 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58346822-DB6C-49B4-B2BA-DB5EE658DF9B}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E3:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Funcionário" xr10:uid="{46127D46-156F-48A0-8C45-C1C4518387DE}" sourceName="Funcionário">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1598470065">
+      <items count="9">
+        <i x="5" s="1"/>
+        <i x="3"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="7"/>
+        <i x="4"/>
+        <i x="8"/>
+        <i x="6"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Funcionário" xr10:uid="{F8803F9D-0B95-436E-A595-EDD61C7E96A1}" cache="SegmentaçãodeDados_Funcionário" caption="Funcionário" rowHeight="245835"/>
+</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1281,103 +1600,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEA20A3-2D1A-4DF0-B054-59D63D12AEE2}">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3828125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.4609375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14">
+        <v>518.87</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1565.2800000000002</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14">
+        <v>518.87</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2691.4900000000002</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6"/>
+      <c r="E6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1178.97</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7"/>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14">
+        <v>879.7</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8"/>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2019.5000000000002</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9"/>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1079.9000000000001</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10"/>
+      <c r="E10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1809.6</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B11"/>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1289.1999999999998</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B12"/>
+      <c r="E12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1148.0700000000002</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13"/>
+      <c r="E13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3759.7000000000003</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="14">
+        <v>661.86</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="14">
+        <v>18083.27</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="14">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1385,6 +1844,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC496C8D-31DD-44BF-BB59-A20DBE9BFB99}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D706E86-5733-4AA6-8710-3D7A458B845A}">
   <dimension ref="A1:F56"/>
   <sheetViews>
@@ -1396,7 +1877,7 @@
     <col min="3" max="3" width="18.53515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.53515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4609375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.4609375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -1415,7 +1896,7 @@
       <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1435,7 +1916,7 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <f>IFERROR(VLOOKUP(C2,'Tabela de Preços'!A:B,2,0),"Erro")*E2</f>
         <v>89.9</v>
       </c>
@@ -1456,7 +1937,7 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <f>IFERROR(VLOOKUP(C3,'Tabela de Preços'!A:B,2,0),"Erro")*E3</f>
         <v>269.70000000000005</v>
       </c>
@@ -1477,7 +1958,7 @@
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <f>IFERROR(VLOOKUP(C4,'Tabela de Preços'!A:B,2,0),"Erro")*E4</f>
         <v>399.5</v>
       </c>
@@ -1498,7 +1979,7 @@
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <f>IFERROR(VLOOKUP(C5,'Tabela de Preços'!A:B,2,0),"Erro")*E5</f>
         <v>250</v>
       </c>
@@ -1519,7 +2000,7 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <f>IFERROR(VLOOKUP(C6,'Tabela de Preços'!A:B,2,0),"Erro")*E6</f>
         <v>480</v>
       </c>
@@ -1540,7 +2021,7 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <f>IFERROR(VLOOKUP(C7,'Tabela de Preços'!A:B,2,0),"Erro")*E7</f>
         <v>285.98</v>
       </c>
@@ -1561,7 +2042,7 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="10">
         <f>IFERROR(VLOOKUP(C8,'Tabela de Preços'!A:B,2,0),"Erro")*E8</f>
         <v>250</v>
       </c>
@@ -1582,7 +2063,7 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <f>IFERROR(VLOOKUP(C9,'Tabela de Preços'!A:B,2,0),"Erro")*E9</f>
         <v>120</v>
       </c>
@@ -1603,7 +2084,7 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <f>IFERROR(VLOOKUP(C10,'Tabela de Preços'!A:B,2,0),"Erro")*E10</f>
         <v>714.95</v>
       </c>
@@ -1624,7 +2105,7 @@
       <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <f>IFERROR(VLOOKUP(C11,'Tabela de Preços'!A:B,2,0),"Erro")*E11</f>
         <v>809.1</v>
       </c>
@@ -1645,7 +2126,7 @@
       <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <f>IFERROR(VLOOKUP(C12,'Tabela de Preços'!A:B,2,0),"Erro")*E12</f>
         <v>89.9</v>
       </c>
@@ -1666,7 +2147,7 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <f>IFERROR(VLOOKUP(C13,'Tabela de Preços'!A:B,2,0),"Erro")*E13</f>
         <v>79.900000000000006</v>
       </c>
@@ -1687,7 +2168,7 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <f>IFERROR(VLOOKUP(C14,'Tabela de Preços'!A:B,2,0),"Erro")*E14</f>
         <v>250</v>
       </c>
@@ -1708,7 +2189,7 @@
       <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f>IFERROR(VLOOKUP(C15,'Tabela de Preços'!A:B,2,0),"Erro")*E15</f>
         <v>360</v>
       </c>
@@ -1729,7 +2210,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f>IFERROR(VLOOKUP(C16,'Tabela de Preços'!A:B,2,0),"Erro")*E16</f>
         <v>142.99</v>
       </c>
@@ -1750,7 +2231,7 @@
       <c r="E17" s="1">
         <v>12</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f>IFERROR(VLOOKUP(C17,'Tabela de Preços'!A:B,2,0),"Erro")*E17</f>
         <v>3000</v>
       </c>
@@ -1771,7 +2252,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <f>IFERROR(VLOOKUP(C18,'Tabela de Preços'!A:B,2,0),"Erro")*E18</f>
         <v>120</v>
       </c>
@@ -1792,7 +2273,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <f>IFERROR(VLOOKUP(C19,'Tabela de Preços'!A:B,2,0),"Erro")*E19</f>
         <v>142.99</v>
       </c>
@@ -1813,7 +2294,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <f>IFERROR(VLOOKUP(C20,'Tabela de Preços'!A:B,2,0),"Erro")*E20</f>
         <v>89.9</v>
       </c>
@@ -1834,7 +2315,7 @@
       <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <f>IFERROR(VLOOKUP(C21,'Tabela de Preços'!A:B,2,0),"Erro")*E21</f>
         <v>179.8</v>
       </c>
@@ -1855,7 +2336,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <f>IFERROR(VLOOKUP(C22,'Tabela de Preços'!A:B,2,0),"Erro")*E22</f>
         <v>79.900000000000006</v>
       </c>
@@ -1876,7 +2357,7 @@
       <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f>IFERROR(VLOOKUP(C23,'Tabela de Preços'!A:B,2,0),"Erro")*E23</f>
         <v>750</v>
       </c>
@@ -1897,7 +2378,7 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <f>IFERROR(VLOOKUP(C24,'Tabela de Preços'!A:B,2,0),"Erro")*E24</f>
         <v>120</v>
       </c>
@@ -1918,7 +2399,7 @@
       <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <f>IFERROR(VLOOKUP(C25,'Tabela de Preços'!A:B,2,0),"Erro")*E25</f>
         <v>285.98</v>
       </c>
@@ -1939,7 +2420,7 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <f>IFERROR(VLOOKUP(C26,'Tabela de Preços'!A:B,2,0),"Erro")*E26</f>
         <v>250</v>
       </c>
@@ -1960,7 +2441,7 @@
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="10">
         <f>IFERROR(VLOOKUP(C27,'Tabela de Preços'!A:B,2,0),"Erro")*E27</f>
         <v>480</v>
       </c>
@@ -1981,7 +2462,7 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="10">
         <f>IFERROR(VLOOKUP(C28,'Tabela de Preços'!A:B,2,0),"Erro")*E28</f>
         <v>142.99</v>
       </c>
@@ -2002,7 +2483,7 @@
       <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="10">
         <f>IFERROR(VLOOKUP(C29,'Tabela de Preços'!A:B,2,0),"Erro")*E29</f>
         <v>179.8</v>
       </c>
@@ -2023,7 +2504,7 @@
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="10">
         <f>IFERROR(VLOOKUP(C30,'Tabela de Preços'!A:B,2,0),"Erro")*E30</f>
         <v>89.9</v>
       </c>
@@ -2044,7 +2525,7 @@
       <c r="E31" s="1">
         <v>9</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="10">
         <f>IFERROR(VLOOKUP(C31,'Tabela de Preços'!A:B,2,0),"Erro")*E31</f>
         <v>719.1</v>
       </c>
@@ -2065,7 +2546,7 @@
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="10">
         <f>IFERROR(VLOOKUP(C32,'Tabela de Preços'!A:B,2,0),"Erro")*E32</f>
         <v>250</v>
       </c>
@@ -2086,7 +2567,7 @@
       <c r="E33" s="1">
         <v>2</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="10">
         <f>IFERROR(VLOOKUP(C33,'Tabela de Preços'!A:B,2,0),"Erro")*E33</f>
         <v>240</v>
       </c>
@@ -2107,7 +2588,7 @@
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="10">
         <f>IFERROR(VLOOKUP(C34,'Tabela de Preços'!A:B,2,0),"Erro")*E34</f>
         <v>142.99</v>
       </c>
@@ -2128,7 +2609,7 @@
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="10">
         <f>IFERROR(VLOOKUP(C35,'Tabela de Preços'!A:B,2,0),"Erro")*E35</f>
         <v>250</v>
       </c>
@@ -2149,7 +2630,7 @@
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="10">
         <f>IFERROR(VLOOKUP(C36,'Tabela de Preços'!A:B,2,0),"Erro")*E36</f>
         <v>240</v>
       </c>
@@ -2170,7 +2651,7 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="10">
         <f>IFERROR(VLOOKUP(C37,'Tabela de Preços'!A:B,2,0),"Erro")*E37</f>
         <v>142.99</v>
       </c>
@@ -2191,7 +2672,7 @@
       <c r="E38" s="1">
         <v>4</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="10">
         <f>IFERROR(VLOOKUP(C38,'Tabela de Preços'!A:B,2,0),"Erro")*E38</f>
         <v>359.6</v>
       </c>
@@ -2212,7 +2693,7 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="10">
         <f>IFERROR(VLOOKUP(C39,'Tabela de Preços'!A:B,2,0),"Erro")*E39</f>
         <v>89.9</v>
       </c>
@@ -2233,7 +2714,7 @@
       <c r="E40" s="1">
         <v>1</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="10">
         <f>IFERROR(VLOOKUP(C40,'Tabela de Preços'!A:B,2,0),"Erro")*E40</f>
         <v>79.900000000000006</v>
       </c>
@@ -2254,7 +2735,7 @@
       <c r="E41" s="1">
         <v>3</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="10">
         <f>IFERROR(VLOOKUP(C41,'Tabela de Preços'!A:B,2,0),"Erro")*E41</f>
         <v>750</v>
       </c>
@@ -2275,7 +2756,7 @@
       <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="10">
         <f>IFERROR(VLOOKUP(C42,'Tabela de Preços'!A:B,2,0),"Erro")*E42</f>
         <v>120</v>
       </c>
@@ -2296,7 +2777,7 @@
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <f>IFERROR(VLOOKUP(C43,'Tabela de Preços'!A:B,2,0),"Erro")*E43</f>
         <v>142.99</v>
       </c>
@@ -2317,7 +2798,7 @@
       <c r="E44" s="1">
         <v>2</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="10">
         <f>IFERROR(VLOOKUP(C44,'Tabela de Preços'!A:B,2,0),"Erro")*E44</f>
         <v>500</v>
       </c>
@@ -2338,7 +2819,7 @@
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="10">
         <f>IFERROR(VLOOKUP(C45,'Tabela de Preços'!A:B,2,0),"Erro")*E45</f>
         <v>120</v>
       </c>
@@ -2359,7 +2840,7 @@
       <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="10">
         <f>IFERROR(VLOOKUP(C46,'Tabela de Preços'!A:B,2,0),"Erro")*E46</f>
         <v>571.96</v>
       </c>
@@ -2380,7 +2861,7 @@
       <c r="E47" s="1">
         <v>1</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="10">
         <f>IFERROR(VLOOKUP(C47,'Tabela de Preços'!A:B,2,0),"Erro")*E47</f>
         <v>89.9</v>
       </c>
@@ -2401,7 +2882,7 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="10">
         <f>IFERROR(VLOOKUP(C48,'Tabela de Preços'!A:B,2,0),"Erro")*E48</f>
         <v>89.9</v>
       </c>
@@ -2422,7 +2903,7 @@
       <c r="E49" s="1">
         <v>6</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="10">
         <f>IFERROR(VLOOKUP(C49,'Tabela de Preços'!A:B,2,0),"Erro")*E49</f>
         <v>479.40000000000003</v>
       </c>
@@ -2443,7 +2924,7 @@
       <c r="E50" s="1">
         <v>1</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="10">
         <f>IFERROR(VLOOKUP(C50,'Tabela de Preços'!A:B,2,0),"Erro")*E50</f>
         <v>250</v>
       </c>
@@ -2464,7 +2945,7 @@
       <c r="E51" s="1">
         <v>3</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="10">
         <f>IFERROR(VLOOKUP(C51,'Tabela de Preços'!A:B,2,0),"Erro")*E51</f>
         <v>360</v>
       </c>
@@ -2485,7 +2966,7 @@
       <c r="E52" s="1">
         <v>2</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="10">
         <f>IFERROR(VLOOKUP(C52,'Tabela de Preços'!A:B,2,0),"Erro")*E52</f>
         <v>285.98</v>
       </c>
@@ -2506,7 +2987,7 @@
       <c r="E53" s="1">
         <v>2</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="10">
         <f>IFERROR(VLOOKUP(C53,'Tabela de Preços'!A:B,2,0),"Erro")*E53</f>
         <v>500</v>
       </c>
@@ -2527,7 +3008,7 @@
       <c r="E54" s="1">
         <v>1</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="10">
         <f>IFERROR(VLOOKUP(C54,'Tabela de Preços'!A:B,2,0),"Erro")*E54</f>
         <v>120</v>
       </c>
@@ -2548,28 +3029,28 @@
       <c r="E55" s="1">
         <v>2</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="10">
         <f>IFERROR(VLOOKUP(C55,'Tabela de Preços'!A:B,2,0),"Erro")*E55</f>
         <v>285.98</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="8" t="s">
+      <c r="A56" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="4">
         <v>44124</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="1">
         <v>5</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="11">
         <f>IFERROR(VLOOKUP(C56,'Tabela de Preços'!A:B,2,0),"Erro")*E56</f>
         <v>399.5</v>
       </c>
@@ -2583,7 +3064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E57351-9FB4-4938-9760-5995EABDC7A3}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Excel/076_DashBoard+1.xlsx
+++ b/Excel/076_DashBoard+1.xlsx
@@ -8,27 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EC0C89-B4BF-4088-B51A-6B50C21D8F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06DDDA6-2314-42DD-8CDF-5E6831F03E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{0F881DE4-0263-4936-8263-7C6D728F4D26}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{0F881DE4-0263-4936-8263-7C6D728F4D26}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="3" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabela Dinâmica" sheetId="3" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
     <sheet name="Vendas" sheetId="1" r:id="rId3"/>
     <sheet name="Tabela de Preços" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="SegmentaçãodeDados_Cliente">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Funcionário">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
   <si>
     <t>Produto</t>
   </si>
@@ -377,20 +379,4916 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[076_DashBoard+1.xlsx]Tabela Dinâmica!Tabela dinâmica2</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Alice</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alvaro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>José</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Monica</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Roberta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rose</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Solange</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thuany</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1565.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2691.4900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019.5000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1809.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1289.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1148.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3759.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>661.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-358B-4AA8-97FD-616F111F2D19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="124505920"/>
+        <c:axId val="729015200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124505920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="729015200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="729015200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124505920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[076_DashBoard+1.xlsx]Tabela Dinâmica!Tabela dinâmica2</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-A5FB-4FE9-938B-A16DB16E3108}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Alice</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alvaro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>José</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Monica</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Roberta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rose</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Solange</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thuany</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1565.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2691.4900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019.5000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1809.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1289.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1148.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3759.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>661.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-A5FB-4FE9-938B-A16DB16E3108}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[076_DashBoard+1.xlsx]Tabela Dinâmica!Tabela dinâmica2</c:name>
+    <c:fmtId val="15"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Alice</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alvaro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>José</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Monica</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Roberta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rose</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Solange</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thuany</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1565.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2691.4900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019.5000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1809.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1289.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1148.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3759.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>661.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A67E-434F-B7FC-CAE9E50A6C88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="124500160"/>
+        <c:axId val="124502680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124500160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124502680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="124502680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="124500160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[076_DashBoard+1.xlsx]Tabela Dinâmica!Tabela dinâmica2</c:name>
+    <c:fmtId val="32"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Alice</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alvaro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carla</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Elaine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>José</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Monica</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Roberta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rose</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Solange</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thuany</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1565.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2691.4900000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1178.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>879.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019.5000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1079.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1809.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1289.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1148.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3759.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>661.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4676-43C0-B0A0-0ECFDC4582F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="390813112"/>
+        <c:axId val="390811312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="390813112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390811312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390811312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390813112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>97971</xdr:rowOff>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>72111</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -426,8 +5324,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="217714" y="283028"/>
-              <a:ext cx="1828800" cy="2564940"/>
+              <a:off x="65314" y="560613"/>
+              <a:ext cx="3630386" cy="1235529"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -455,6 +5353,236 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Cliente">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35121A22-0B20-4323-B356-282FF89653BF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Cliente"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3799112" y="424542"/>
+              <a:ext cx="6172202" cy="1475014"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836AE538-A38F-4C77-ABD7-7B94F71AB3D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A1F147-A264-48E6-B339-F2101C1A8A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97972</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F998AD58-5CA6-4C3F-99CC-1C40A9038248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC35D41D-827D-4B63-A0BC-75634999E6A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -967,7 +6095,439 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3942E28C-BC4B-4EE7-93E2-5B37962817BF}" name="Tabela dinâmica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58346822-DB6C-49B4-B2BA-DB5EE658DF9B}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+  <location ref="E3:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="21">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="29" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="30" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="31" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="32" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3942E28C-BC4B-4EE7-93E2-5B37962817BF}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -1073,207 +6633,52 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58346822-DB6C-49B4-B2BA-DB5EE658DF9B}" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E3:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="7"/>
-        <item h="1" x="4"/>
-        <item h="1" x="8"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Funcionário" xr10:uid="{46127D46-156F-48A0-8C45-C1C4518387DE}" sourceName="Funcionário">
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1598470065">
       <items count="9">
         <i x="5" s="1"/>
-        <i x="3"/>
-        <i x="0"/>
-        <i x="1"/>
-        <i x="2"/>
-        <i x="7"/>
-        <i x="4"/>
-        <i x="8"/>
-        <i x="6"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="7" s="1"/>
+        <i x="4" s="1"/>
+        <i x="8" s="1"/>
+        <i x="6" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Cliente" xr10:uid="{761FA651-1D1D-4A36-AA29-3EFB79AD9D90}" sourceName="Cliente">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1598470065">
+      <items count="11">
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="5" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="9" s="1"/>
+        <i x="6" s="1"/>
+        <i x="3" s="1"/>
+        <i x="10" s="1"/>
+        <i x="8" s="1"/>
+        <i x="7" s="1"/>
       </items>
     </tabular>
   </data>
@@ -1282,7 +6687,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Funcionário" xr10:uid="{F8803F9D-0B95-436E-A595-EDD61C7E96A1}" cache="SegmentaçãodeDados_Funcionário" caption="Funcionário" rowHeight="245835"/>
+  <slicer name="Funcionário" xr10:uid="{F8803F9D-0B95-436E-A595-EDD61C7E96A1}" cache="SegmentaçãodeDados_Funcionário" caption="Funcionário" columnCount="3" rowHeight="245835"/>
+  <slicer name="Cliente" xr10:uid="{0FC780E7-93C9-4CC6-A3E3-02DCF24DB8E9}" cache="SegmentaçãodeDados_Cliente" caption="Cliente" columnCount="3" rowHeight="245835"/>
 </slicers>
 </file>
 
@@ -1602,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEA20A3-2D1A-4DF0-B054-59D63D12AEE2}">
   <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1672,10 +7078,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B5" s="14">
-        <v>518.87</v>
+        <v>4814.95</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
@@ -1691,7 +7097,12 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6"/>
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3280.0299999999997</v>
+      </c>
       <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +7117,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7"/>
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3890.4600000000005</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +7137,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8"/>
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2451.4900000000002</v>
+      </c>
       <c r="E8" s="13" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +7157,12 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9"/>
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14">
+        <v>549.79999999999995</v>
+      </c>
       <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
@@ -1751,7 +7177,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10"/>
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1358.8700000000001</v>
+      </c>
       <c r="E10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +7197,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11"/>
+      <c r="A11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14">
+        <v>399.5</v>
+      </c>
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
@@ -1781,7 +7217,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12"/>
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14">
+        <v>819.3</v>
+      </c>
       <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
@@ -1796,7 +7237,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13"/>
+      <c r="A13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14">
+        <v>18083.269999999997</v>
+      </c>
       <c r="E13" s="13" t="s">
         <v>28</v>
       </c>
@@ -1847,8 +7293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC496C8D-31DD-44BF-BB59-A20DBE9BFB99}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Excel/076_DashBoard+1.xlsx
+++ b/Excel/076_DashBoard+1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06DDDA6-2314-42DD-8CDF-5E6831F03E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98443D2-CF06-46D2-824D-6F713DFFCF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{0F881DE4-0263-4936-8263-7C6D728F4D26}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
   <si>
     <t>Produto</t>
   </si>
@@ -165,6 +165,12 @@
   <si>
     <t>Vendas Funcionário</t>
   </si>
+  <si>
+    <t>Dashboard de Vendas</t>
+  </si>
+  <si>
+    <t>Total de Vendas</t>
+  </si>
 </sst>
 </file>
 
@@ -173,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +189,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -302,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +354,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -397,51 +428,79 @@
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:glow rad="63500">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -461,9 +520,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -475,119 +533,7 @@
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -619,15 +565,78 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
@@ -719,14 +728,13 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="75"/>
         <c:axId val="124505920"/>
         <c:axId val="729015200"/>
       </c:barChart>
@@ -743,14 +751,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -761,9 +763,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -788,20 +789,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -820,9 +807,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -845,37 +831,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -889,11 +844,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -923,7 +881,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -954,53 +911,114 @@
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1020,279 +1038,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1317,155 +1064,467 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1491,15 +1550,42 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1511,15 +1597,42 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1531,15 +1644,42 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1551,15 +1691,42 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1571,15 +1738,42 @@
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1591,15 +1785,42 @@
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1611,17 +1832,45 @@
             <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1633,17 +1882,45 @@
             <c:idx val="7"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1655,17 +1932,45 @@
             <c:idx val="8"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1677,17 +1982,45 @@
             <c:idx val="9"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1699,17 +2032,45 @@
             <c:idx val="10"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1842,9 +2203,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1868,17 +2228,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1934,51 +2305,122 @@
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="diamond"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1998,121 +2440,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2156,13 +2485,42 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2262,7 +2620,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="124500160"/>
         <c:axId val="124502680"/>
       </c:barChart>
@@ -2279,11 +2638,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2297,9 +2656,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2328,9 +2686,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2356,9 +2714,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2381,37 +2738,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2424,17 +2750,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2459,7 +2796,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -2490,65 +2826,76 @@
     <c:fmtId val="32"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
+          <a:ln w="22225" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:round/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:glow rad="139700">
+              <a:schemeClr val="accent1">
+                <a:satMod val="175000"/>
+                <a:alpha val="14000"/>
+              </a:schemeClr>
+            </a:glow>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:size val="4"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
         </c:marker>
         <c:dLbl>
@@ -2569,148 +2916,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2753,27 +2960,41 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:cat>
@@ -2886,20 +3107,39 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2910,9 +3150,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2940,12 +3179,23 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2969,9 +3219,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2994,37 +3243,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3038,11 +3256,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3072,7 +3293,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -3246,33 +3466,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3281,38 +3514,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3322,23 +3531,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3346,36 +3550,598 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3387,10 +4153,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3399,16 +4165,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3426,21 +4193,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3450,20 +4214,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3477,14 +4241,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3498,9 +4262,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3514,12 +4277,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3531,9 +4288,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3548,108 +4305,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3661,12 +4425,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3682,7 +4453,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3691,9 +4461,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3703,7 +4472,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3711,9 +4480,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3724,9 +4493,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3738,46 +4506,38 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3785,37 +4545,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3834,14 +4601,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3850,49 +4609,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3904,10 +4649,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3916,16 +4661,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3943,31 +4689,353 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3978,323 +5046,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4303,38 +5055,14 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4344,23 +5072,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -4368,71 +5091,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4448,21 +5231,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4472,20 +5252,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4497,14 +5276,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4516,14 +5294,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4535,30 +5312,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4568,16 +5350,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -4587,14 +5382,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4606,14 +5400,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4625,27 +5418,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4653,9 +5445,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4665,14 +5456,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4684,12 +5474,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4698,14 +5487,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4714,9 +5504,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4726,17 +5515,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4748,9 +5538,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4760,517 +5549,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5285,13 +5565,13 @@
       <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>429986</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1083129</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Funcionário">
@@ -5314,7 +5594,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5358,15 +5638,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>533398</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>174171</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>48985</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141513</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5402,8 +5682,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3799112" y="424542"/>
-              <a:ext cx="6172202" cy="1475014"/>
+              <a:off x="3935184" y="734784"/>
+              <a:ext cx="6172202" cy="1246415"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5436,15 +5716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>103415</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>119743</xdr:rowOff>
+      <xdr:colOff>59872</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>103415</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:colOff>59872</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5474,15 +5754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>424543</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>424543</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5512,15 +5792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>59872</xdr:rowOff>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>97972</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5550,15 +5830,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>119743</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6095,7 +6375,215 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58346822-DB6C-49B4-B2BA-DB5EE658DF9B}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="33">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3942E28C-BC4B-4EE7-93E2-5B37962817BF}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="10">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Quantidade" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58346822-DB6C-49B4-B2BA-DB5EE658DF9B}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
   <location ref="E3:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -6425,214 +6913,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3942E28C-BC4B-4EE7-93E2-5B37962817BF}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I3:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Quantidade" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Funcionário" xr10:uid="{46127D46-156F-48A0-8C45-C1C4518387DE}" sourceName="Funcionário">
   <pivotTables>
@@ -6687,8 +6967,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Funcionário" xr10:uid="{F8803F9D-0B95-436E-A595-EDD61C7E96A1}" cache="SegmentaçãodeDados_Funcionário" caption="Funcionário" columnCount="3" rowHeight="245835"/>
-  <slicer name="Cliente" xr10:uid="{0FC780E7-93C9-4CC6-A3E3-02DCF24DB8E9}" cache="SegmentaçãodeDados_Cliente" caption="Cliente" columnCount="3" rowHeight="245835"/>
+  <slicer name="Funcionário" xr10:uid="{F8803F9D-0B95-436E-A595-EDD61C7E96A1}" cache="SegmentaçãodeDados_Funcionário" caption="Funcionário" columnCount="3" style="SlicerStyleOther1" rowHeight="245835"/>
+  <slicer name="Cliente" xr10:uid="{0FC780E7-93C9-4CC6-A3E3-02DCF24DB8E9}" cache="SegmentaçãodeDados_Cliente" caption="Cliente" columnCount="3" style="SlicerStyleOther1" rowHeight="245835"/>
 </slicers>
 </file>
 
@@ -7009,7 +7289,7 @@
   <dimension ref="A2:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7291,14 +7571,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC496C8D-31DD-44BF-BB59-A20DBE9BFB99}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="9.23046875" style="16"/>
+    <col min="5" max="5" width="16" style="16" customWidth="1"/>
+    <col min="6" max="8" width="9.23046875" style="16"/>
+    <col min="9" max="9" width="12.921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="28.3" x14ac:dyDescent="0.75">
+      <c r="A2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18">
+        <f>GETPIVOTDATA("Total Vendas",'Tabela Dinâmica'!$A$3)</f>
+        <v>18083.269999999997</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="18">
+        <f>GETPIVOTDATA("Quantidade",'Tabela Dinâmica'!$I$3)</f>
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
   <extLst>

--- a/Excel/076_DashBoard+1.xlsx
+++ b/Excel/076_DashBoard+1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98443D2-CF06-46D2-824D-6F713DFFCF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABE2C5-53F5-44CE-86FB-28FD2A38F929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{0F881DE4-0263-4936-8263-7C6D728F4D26}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabela Dinâmica" sheetId="3" r:id="rId1"/>
     <sheet name="Dashboard" sheetId="4" r:id="rId2"/>
     <sheet name="Vendas" sheetId="1" r:id="rId3"/>
-    <sheet name="Tabela de Preços" sheetId="2" r:id="rId4"/>
+    <sheet name="Tabela de Preços" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Cliente">#N/A</definedName>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="44">
   <si>
     <t>Produto</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Total de Vendas</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>teste 2</t>
   </si>
 </sst>
 </file>
@@ -322,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,17 +359,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -480,27 +496,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -639,9 +635,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$10</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Alice</c:v>
                 </c:pt>
@@ -649,30 +645,15 @@
                   <c:v>Alvaro</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carla</c:v>
+                  <c:v>José</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Elaine</c:v>
+                  <c:v>Mia</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>José</c:v>
+                  <c:v>Rose</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mia</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monica</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Roberta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rose</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Solange</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Thuany</c:v>
                 </c:pt>
               </c:strCache>
@@ -680,42 +661,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1565.2800000000002</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2691.4900000000002</c:v>
+                  <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1178.97</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>879.7</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2019.5000000000002</c:v>
+                  <c:v>285.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1079.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1809.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1289.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1148.0700000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3759.7000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>661.86</c:v>
+                  <c:v>142.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,8 +983,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1108,21 +1073,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1149,21 +1114,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1190,21 +1155,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1231,21 +1196,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1272,21 +1237,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1314,7 +1279,6 @@
             <a:gsLst>
               <a:gs pos="0">
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
@@ -1322,7 +1286,6 @@
               </a:gs>
               <a:gs pos="50000">
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
@@ -1330,7 +1293,6 @@
               </a:gs>
               <a:gs pos="100000">
                 <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1357,24 +1319,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1401,24 +1360,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1445,24 +1401,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -1489,24 +1442,21 @@
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="103000"/>
                   <a:lumMod val="102000"/>
                   <a:tint val="94000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="50000">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:satMod val="110000"/>
                   <a:lumMod val="100000"/>
                   <a:shade val="100000"/>
                 </a:schemeClr>
               </a:gs>
               <a:gs pos="100000">
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent1">
                   <a:lumMod val="99000"/>
                   <a:satMod val="120000"/>
                   <a:shade val="78000"/>
@@ -2080,9 +2030,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$10</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Alice</c:v>
                 </c:pt>
@@ -2090,30 +2040,15 @@
                   <c:v>Alvaro</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carla</c:v>
+                  <c:v>José</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Elaine</c:v>
+                  <c:v>Mia</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>José</c:v>
+                  <c:v>Rose</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mia</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monica</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Roberta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rose</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Solange</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Thuany</c:v>
                 </c:pt>
               </c:strCache>
@@ -2121,42 +2056,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1565.2800000000002</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2691.4900000000002</c:v>
+                  <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1178.97</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>879.7</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2019.5000000000002</c:v>
+                  <c:v>285.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1079.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1809.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1289.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1148.0700000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3759.7000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>661.86</c:v>
+                  <c:v>142.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,49 +2298,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2525,9 +2403,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$10</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Alice</c:v>
                 </c:pt>
@@ -2535,30 +2413,15 @@
                   <c:v>Alvaro</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carla</c:v>
+                  <c:v>José</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Elaine</c:v>
+                  <c:v>Mia</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>José</c:v>
+                  <c:v>Rose</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mia</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monica</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Roberta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rose</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Solange</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Thuany</c:v>
                 </c:pt>
               </c:strCache>
@@ -2566,42 +2429,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1565.2800000000002</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2691.4900000000002</c:v>
+                  <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1178.97</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>879.7</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2019.5000000000002</c:v>
+                  <c:v>285.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1079.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1809.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1289.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1148.0700000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3759.7000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>661.86</c:v>
+                  <c:v>142.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,9 +2847,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tabela Dinâmica'!$E$4:$E$15</c:f>
+              <c:f>'Tabela Dinâmica'!$E$4:$E$10</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Alice</c:v>
                 </c:pt>
@@ -3009,30 +2857,15 @@
                   <c:v>Alvaro</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Carla</c:v>
+                  <c:v>José</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Elaine</c:v>
+                  <c:v>Mia</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>José</c:v>
+                  <c:v>Rose</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Mia</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monica</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Roberta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Rose</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Solange</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Thuany</c:v>
                 </c:pt>
               </c:strCache>
@@ -3040,42 +2873,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tabela Dinâmica'!$F$4:$F$15</c:f>
+              <c:f>'Tabela Dinâmica'!$F$4:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1565.2800000000002</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2691.4900000000002</c:v>
+                  <c:v>89.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1178.97</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>879.7</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2019.5000000000002</c:v>
+                  <c:v>285.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1079.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1809.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1289.1999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1148.0700000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3759.7000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>661.86</c:v>
+                  <c:v>142.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5557,7 +5375,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
@@ -5570,8 +5388,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Funcionário">
@@ -5594,7 +5412,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5604,7 +5422,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="65314" y="560613"/>
+              <a:off x="65314" y="734785"/>
               <a:ext cx="3630386" cy="1235529"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5635,18 +5453,18 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
+      <xdr:colOff>76198</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>5441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>223157</xdr:colOff>
+      <xdr:colOff>108857</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>141513</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -5682,8 +5500,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3935184" y="734784"/>
-              <a:ext cx="6172202" cy="1246415"/>
+              <a:off x="3820884" y="734784"/>
+              <a:ext cx="6172202" cy="1246416"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5869,13 +5687,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rodrigo Costa" refreshedDate="45467.781691087963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{F0D5D6E5-7129-4486-9809-9F540084F507}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rodrigo Costa" refreshedDate="45467.824693402777" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="56" xr:uid="{F0D5D6E5-7129-4486-9809-9F540084F507}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Funcionário" numFmtId="0">
-      <sharedItems count="9">
+      <sharedItems count="10">
         <s v="João Campos"/>
         <s v="José Oliveira"/>
         <s v="Maria Helena"/>
@@ -5885,10 +5703,11 @@
         <s v="Tabata Moreira"/>
         <s v="Miguel Araujo"/>
         <s v="Paloma Silva"/>
+        <s v="teste"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Cliente" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="12">
         <s v="Elaine"/>
         <s v="José"/>
         <s v="Alvaro"/>
@@ -5900,16 +5719,11 @@
         <s v="Solange"/>
         <s v="Mia"/>
         <s v="Rose"/>
+        <s v="teste 2"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Produto vendido" numFmtId="0">
-      <sharedItems count="5">
-        <s v="Calça"/>
-        <s v="Camisa"/>
-        <s v="Relógio"/>
-        <s v="Sapato"/>
-        <s v="Tênis"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Data" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-09-12T00:00:00" maxDate="2020-10-21T00:00:00"/>
@@ -5930,11 +5744,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="56">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2019-09-12T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
@@ -5942,7 +5756,7 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2019-09-19T00:00:00"/>
     <n v="3"/>
     <n v="269.70000000000005"/>
@@ -5950,7 +5764,7 @@
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="1"/>
+    <s v="Camisa"/>
     <d v="2019-09-26T00:00:00"/>
     <n v="5"/>
     <n v="399.5"/>
@@ -5958,7 +5772,7 @@
   <r>
     <x v="3"/>
     <x v="3"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2019-10-03T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
@@ -5966,7 +5780,7 @@
   <r>
     <x v="4"/>
     <x v="4"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2019-10-10T00:00:00"/>
     <n v="4"/>
     <n v="480"/>
@@ -5974,7 +5788,7 @@
   <r>
     <x v="5"/>
     <x v="5"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2019-10-17T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
@@ -5982,7 +5796,7 @@
   <r>
     <x v="6"/>
     <x v="6"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2019-10-24T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
@@ -5990,7 +5804,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2019-10-31T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
@@ -5998,7 +5812,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2019-11-07T00:00:00"/>
     <n v="5"/>
     <n v="714.95"/>
@@ -6006,7 +5820,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2019-11-14T00:00:00"/>
     <n v="9"/>
     <n v="809.1"/>
@@ -6014,7 +5828,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2019-11-21T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
@@ -6022,7 +5836,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="1"/>
+    <s v="Camisa"/>
     <d v="2019-11-28T00:00:00"/>
     <n v="1"/>
     <n v="79.900000000000006"/>
@@ -6030,7 +5844,7 @@
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2019-12-05T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
@@ -6038,7 +5852,7 @@
   <r>
     <x v="1"/>
     <x v="6"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2019-12-12T00:00:00"/>
     <n v="3"/>
     <n v="360"/>
@@ -6046,7 +5860,7 @@
   <r>
     <x v="2"/>
     <x v="7"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2019-12-19T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
@@ -6054,7 +5868,7 @@
   <r>
     <x v="3"/>
     <x v="8"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2019-12-26T00:00:00"/>
     <n v="12"/>
     <n v="3000"/>
@@ -6062,7 +5876,7 @@
   <r>
     <x v="4"/>
     <x v="9"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-01-02T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
@@ -6070,7 +5884,7 @@
   <r>
     <x v="5"/>
     <x v="10"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-01-09T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
@@ -6078,7 +5892,7 @@
   <r>
     <x v="6"/>
     <x v="3"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-01-16T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
@@ -6086,7 +5900,7 @@
   <r>
     <x v="7"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-01-23T00:00:00"/>
     <n v="2"/>
     <n v="179.8"/>
@@ -6094,7 +5908,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Camisa"/>
     <d v="2020-01-30T00:00:00"/>
     <n v="1"/>
     <n v="79.900000000000006"/>
@@ -6102,7 +5916,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-02-06T00:00:00"/>
     <n v="3"/>
     <n v="750"/>
@@ -6110,7 +5924,7 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-02-13T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
@@ -6118,7 +5932,7 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-02-20T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
@@ -6126,7 +5940,7 @@
   <r>
     <x v="2"/>
     <x v="5"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-02-27T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
@@ -6134,7 +5948,7 @@
   <r>
     <x v="3"/>
     <x v="6"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-03-05T00:00:00"/>
     <n v="4"/>
     <n v="480"/>
@@ -6142,7 +5956,7 @@
   <r>
     <x v="4"/>
     <x v="7"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-03-12T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
@@ -6150,7 +5964,7 @@
   <r>
     <x v="0"/>
     <x v="8"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-03-19T00:00:00"/>
     <n v="2"/>
     <n v="179.8"/>
@@ -6158,7 +5972,7 @@
   <r>
     <x v="1"/>
     <x v="9"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-03-26T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
@@ -6166,7 +5980,7 @@
   <r>
     <x v="2"/>
     <x v="10"/>
-    <x v="1"/>
+    <s v="Camisa"/>
     <d v="2020-04-02T00:00:00"/>
     <n v="9"/>
     <n v="719.1"/>
@@ -6174,7 +5988,7 @@
   <r>
     <x v="3"/>
     <x v="0"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-04-09T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
@@ -6182,7 +5996,7 @@
   <r>
     <x v="4"/>
     <x v="1"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-04-16T00:00:00"/>
     <n v="2"/>
     <n v="240"/>
@@ -6190,7 +6004,7 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-04-23T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
@@ -6198,7 +6012,7 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-04-30T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
@@ -6206,7 +6020,7 @@
   <r>
     <x v="2"/>
     <x v="4"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-05-07T00:00:00"/>
     <n v="2"/>
     <n v="240"/>
@@ -6214,7 +6028,7 @@
   <r>
     <x v="3"/>
     <x v="5"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-05-14T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
@@ -6222,7 +6036,7 @@
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-05-21T00:00:00"/>
     <n v="4"/>
     <n v="359.6"/>
@@ -6230,7 +6044,7 @@
   <r>
     <x v="1"/>
     <x v="7"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-05-28T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
@@ -6238,7 +6052,7 @@
   <r>
     <x v="2"/>
     <x v="8"/>
-    <x v="1"/>
+    <s v="Camisa"/>
     <d v="2020-06-04T00:00:00"/>
     <n v="1"/>
     <n v="79.900000000000006"/>
@@ -6246,7 +6060,7 @@
   <r>
     <x v="0"/>
     <x v="9"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-06-11T00:00:00"/>
     <n v="3"/>
     <n v="750"/>
@@ -6254,7 +6068,7 @@
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-06-18T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
@@ -6262,7 +6076,7 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-06-25T00:00:00"/>
     <n v="1"/>
     <n v="142.99"/>
@@ -6270,7 +6084,7 @@
   <r>
     <x v="1"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-07-02T00:00:00"/>
     <n v="2"/>
     <n v="500"/>
@@ -6278,7 +6092,7 @@
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-07-09T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
@@ -6286,7 +6100,7 @@
   <r>
     <x v="3"/>
     <x v="1"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-07-16T00:00:00"/>
     <n v="4"/>
     <n v="571.96"/>
@@ -6294,7 +6108,7 @@
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-07-23T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
@@ -6302,7 +6116,7 @@
   <r>
     <x v="5"/>
     <x v="3"/>
-    <x v="0"/>
+    <s v="Calça"/>
     <d v="2020-07-30T00:00:00"/>
     <n v="1"/>
     <n v="89.9"/>
@@ -6310,7 +6124,7 @@
   <r>
     <x v="6"/>
     <x v="4"/>
-    <x v="1"/>
+    <s v="Camisa"/>
     <d v="2020-08-06T00:00:00"/>
     <n v="6"/>
     <n v="479.40000000000003"/>
@@ -6318,7 +6132,7 @@
   <r>
     <x v="7"/>
     <x v="5"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-08-13T00:00:00"/>
     <n v="1"/>
     <n v="250"/>
@@ -6326,7 +6140,7 @@
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-08-20T00:00:00"/>
     <n v="3"/>
     <n v="360"/>
@@ -6334,7 +6148,7 @@
   <r>
     <x v="1"/>
     <x v="7"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-08-27T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
@@ -6342,7 +6156,7 @@
   <r>
     <x v="2"/>
     <x v="8"/>
-    <x v="2"/>
+    <s v="Relógio"/>
     <d v="2020-09-03T00:00:00"/>
     <n v="2"/>
     <n v="500"/>
@@ -6350,7 +6164,7 @@
   <r>
     <x v="3"/>
     <x v="9"/>
-    <x v="3"/>
+    <s v="Sapato"/>
     <d v="2020-09-10T00:00:00"/>
     <n v="1"/>
     <n v="120"/>
@@ -6358,7 +6172,7 @@
   <r>
     <x v="4"/>
     <x v="10"/>
-    <x v="4"/>
+    <s v="Tênis"/>
     <d v="2020-09-17T00:00:00"/>
     <n v="2"/>
     <n v="285.98"/>
@@ -6366,34 +6180,43 @@
   <r>
     <x v="8"/>
     <x v="3"/>
-    <x v="1"/>
+    <s v="Camisa"/>
     <d v="2020-10-20T00:00:00"/>
     <n v="5"/>
     <n v="399.5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="11"/>
+    <s v="Sapato"/>
+    <d v="2020-09-25T00:00:00"/>
+    <n v="3"/>
+    <n v="360"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3942E28C-BC4B-4EE7-93E2-5B37962817BF}" name="Tabela dinâmica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I3:J10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="7"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="7"/>
         <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
+        <item h="1" x="8"/>
+        <item h="1" x="6"/>
+        <item h="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="12">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
         <item x="4"/>
         <item x="2"/>
         <item x="5"/>
@@ -6405,38 +6228,24 @@
         <item x="10"/>
         <item x="8"/>
         <item x="7"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -6445,117 +6254,7 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
       <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3942E28C-BC4B-4EE7-93E2-5B37962817BF}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I3:J15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i>
       <x v="10"/>
@@ -6582,26 +6281,27 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58346822-DB6C-49B4-B2BA-DB5EE658DF9B}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
-  <location ref="E3:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58346822-DB6C-49B4-B2BA-DB5EE658DF9B}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="38">
+  <location ref="E3:F10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
-      <items count="10">
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="7"/>
+      <items count="11">
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="7"/>
         <item x="4"/>
-        <item x="8"/>
-        <item x="6"/>
+        <item h="1" x="8"/>
+        <item h="1" x="6"/>
+        <item h="1" x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="13">
         <item x="4"/>
         <item x="2"/>
         <item x="5"/>
@@ -6613,19 +6313,11 @@
         <item x="10"/>
         <item x="8"/>
         <item x="7"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="44" showAll="0"/>
@@ -6633,18 +6325,12 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
@@ -6653,16 +6339,7 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
     </i>
     <i>
       <x v="10"/>
@@ -6913,6 +6590,76 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{84D1B21C-D444-4013-A8E5-053A785632E7}" name="Tabela dinâmica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="7"/>
+        <item x="4"/>
+        <item h="1" x="8"/>
+        <item h="1" x="6"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Total Vendas" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Funcionário" xr10:uid="{46127D46-156F-48A0-8C45-C1C4518387DE}" sourceName="Funcionário">
   <pivotTables>
@@ -6922,16 +6669,17 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1598470065">
-      <items count="9">
-        <i x="5" s="1"/>
-        <i x="3" s="1"/>
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="7" s="1"/>
+      <items count="10">
+        <i x="5"/>
+        <i x="3"/>
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="7"/>
         <i x="4" s="1"/>
-        <i x="8" s="1"/>
-        <i x="6" s="1"/>
+        <i x="8"/>
+        <i x="6"/>
+        <i x="9"/>
       </items>
     </tabular>
   </data>
@@ -6947,18 +6695,19 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1598470065">
-      <items count="11">
+      <items count="12">
         <i x="4" s="1"/>
         <i x="2" s="1"/>
-        <i x="5" s="1"/>
-        <i x="0" s="1"/>
         <i x="1" s="1"/>
         <i x="9" s="1"/>
-        <i x="6" s="1"/>
-        <i x="3" s="1"/>
         <i x="10" s="1"/>
-        <i x="8" s="1"/>
         <i x="7" s="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6968,13 +6717,13 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Funcionário" xr10:uid="{F8803F9D-0B95-436E-A595-EDD61C7E96A1}" cache="SegmentaçãodeDados_Funcionário" caption="Funcionário" columnCount="3" style="SlicerStyleOther1" rowHeight="245835"/>
-  <slicer name="Cliente" xr10:uid="{0FC780E7-93C9-4CC6-A3E3-02DCF24DB8E9}" cache="SegmentaçãodeDados_Cliente" caption="Cliente" columnCount="3" style="SlicerStyleOther1" rowHeight="245835"/>
+  <slicer name="Cliente" xr10:uid="{0FC780E7-93C9-4CC6-A3E3-02DCF24DB8E9}" cache="SegmentaçãodeDados_Cliente" caption="Cliente" startItem="3" columnCount="3" style="SlicerStyleOther1" rowHeight="245835"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A672B472-E82A-4A39-AC7B-6FD768255D68}" name="Tabela1" displayName="Tabela1" ref="A1:F56" totalsRowShown="0">
-  <autoFilter ref="A1:F56" xr:uid="{A672B472-E82A-4A39-AC7B-6FD768255D68}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A672B472-E82A-4A39-AC7B-6FD768255D68}" name="Tabela1" displayName="Tabela1" ref="A1:F57" totalsRowShown="0">
+  <autoFilter ref="A1:F57" xr:uid="{A672B472-E82A-4A39-AC7B-6FD768255D68}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{84B3740C-6EFA-473D-B751-E91A0B5D8001}" name="Funcionário"/>
     <tableColumn id="2" xr3:uid="{C2E19E60-8164-45EB-AB6D-31F46F94E4E4}" name="Cliente"/>
@@ -7286,7 +7035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEA20A3-2D1A-4DF0-B054-59D63D12AEE2}">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -7338,231 +7087,130 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="14">
-        <v>518.87</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1358.87</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14">
-        <v>1565.2800000000002</v>
+      <c r="F4" s="22">
+        <v>480</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14">
-        <v>15</v>
+      <c r="J4" s="22">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="14">
-        <v>4814.95</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1358.87</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="14">
-        <v>2691.4900000000002</v>
+      <c r="F5" s="22">
+        <v>89.9</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="14">
-        <v>21</v>
+      <c r="J5" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14">
-        <v>3280.0299999999997</v>
-      </c>
+      <c r="B6"/>
       <c r="E6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1178.97</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="22">
+        <v>240</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="14">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="14">
-        <v>3890.4600000000005</v>
-      </c>
+      <c r="B7"/>
       <c r="E7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="14">
-        <v>879.7</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="22">
+        <v>120</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="14">
-        <v>7</v>
+        <v>29</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="14">
-        <v>2451.4900000000002</v>
-      </c>
+      <c r="B8"/>
       <c r="E8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14">
-        <v>2019.5000000000002</v>
+        <v>30</v>
+      </c>
+      <c r="F8" s="22">
+        <v>285.98</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="14">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14">
-        <v>549.79999999999995</v>
-      </c>
+      <c r="B9"/>
       <c r="E9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1079.9000000000001</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="22">
+        <v>142.99</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="14">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="J9" s="22">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="14">
+      <c r="B10"/>
+      <c r="E10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="22">
         <v>1358.8700000000001</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1809.6</v>
-      </c>
       <c r="I10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="14">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="J10" s="22">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="14">
-        <v>399.5</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1289.1999999999998</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="14">
-        <v>11</v>
-      </c>
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14">
-        <v>819.3</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1148.0700000000002</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="14">
-        <v>12</v>
-      </c>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="14">
-        <v>18083.269999999997</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3759.7000000000003</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="14">
-        <v>17</v>
-      </c>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="14">
-        <v>661.86</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="14">
-        <v>18083.27</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="14">
-        <v>131</v>
-      </c>
+      <c r="B14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7571,59 +7219,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC496C8D-31DD-44BF-BB59-A20DBE9BFB99}">
-  <dimension ref="A2:P12"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.6" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="9.23046875" style="16"/>
-    <col min="5" max="5" width="16" style="16" customWidth="1"/>
-    <col min="6" max="8" width="9.23046875" style="16"/>
-    <col min="9" max="9" width="12.921875" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.23046875" style="16"/>
+    <col min="1" max="4" width="9.23046875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16" style="14" customWidth="1"/>
+    <col min="6" max="8" width="9.23046875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="12.921875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="9.23046875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="2.15234375" style="14" customWidth="1"/>
+    <col min="16" max="16" width="9.23046875" style="14" hidden="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.23046875" style="14" hidden="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:16" ht="28.3" x14ac:dyDescent="0.75">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:16" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15">
         <f>GETPIVOTDATA("Total Vendas",'Tabela Dinâmica'!$A$3)</f>
-        <v>18083.269999999997</v>
-      </c>
-      <c r="H12" s="19" t="s">
+        <v>1358.87</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="23">
         <f>GETPIVOTDATA("Quantidade",'Tabela Dinâmica'!$I$3)</f>
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
+    <row r="30" x14ac:dyDescent="0.4"/>
+    <row r="31" x14ac:dyDescent="0.4"/>
+    <row r="32" x14ac:dyDescent="0.4"/>
+    <row r="33" x14ac:dyDescent="0.4"/>
+    <row r="34" x14ac:dyDescent="0.4"/>
+    <row r="35" x14ac:dyDescent="0.4"/>
+    <row r="36" x14ac:dyDescent="0.4"/>
+    <row r="37" x14ac:dyDescent="0.4"/>
+    <row r="38" x14ac:dyDescent="0.4"/>
+    <row r="39" x14ac:dyDescent="0.4"/>
+    <row r="40" x14ac:dyDescent="0.4"/>
+    <row r="41" x14ac:dyDescent="0.4"/>
+    <row r="42" x14ac:dyDescent="0.4"/>
+    <row r="43" x14ac:dyDescent="0.4"/>
+    <row r="44" x14ac:dyDescent="0.4"/>
+    <row r="45" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:P2"/>
@@ -7643,9 +7337,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D706E86-5733-4AA6-8710-3D7A458B845A}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8829,6 +8525,27 @@
       <c r="F56" s="11">
         <f>IFERROR(VLOOKUP(C56,'Tabela de Preços'!A:B,2,0),"Erro")*E56</f>
         <v>399.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="20">
+        <v>44099</v>
+      </c>
+      <c r="E57" s="21">
+        <v>3</v>
+      </c>
+      <c r="F57" s="11">
+        <f>IFERROR(VLOOKUP(C57,'Tabela de Preços'!A:B,2,0),"Erro")*E57</f>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
